--- a/Drug lists/MetforminDrugNames.xlsx
+++ b/Drug lists/MetforminDrugNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD work\clinpath_CT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD work\clinpath_CT\Drug lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8F890-3E07-423C-8A02-47EC7AA6FD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD3653-4992-4173-B080-0A743322BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{9D8D28FD-D08C-4BED-8A65-33F540D591C5}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{9D8D28FD-D08C-4BED-8A65-33F540D591C5}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">use drug list to search contains </t>
   </si>
@@ -379,18 +379,57 @@
   </si>
   <si>
     <t>Glucophage XR</t>
+  </si>
+  <si>
+    <t>actoplus</t>
+  </si>
+  <si>
+    <t>glyburide-metformin</t>
+  </si>
+  <si>
+    <t>glipizide-metformin</t>
+  </si>
+  <si>
+    <t>metformin-pioglitazone</t>
+  </si>
+  <si>
+    <t>pioglitazone-metformin</t>
+  </si>
+  <si>
+    <t>glucovance</t>
+  </si>
+  <si>
+    <t>avandamet</t>
+  </si>
+  <si>
+    <t>invokamet</t>
+  </si>
+  <si>
+    <t>xigduo</t>
+  </si>
+  <si>
+    <t>synjardy</t>
+  </si>
+  <si>
+    <t>segluromet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,8 +452,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901F32C9-10FD-4FD9-8638-7BE418560383}">
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1335,6 +1377,64 @@
       <c r="A112" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A111">
